--- a/comparison_results.xlsx
+++ b/comparison_results.xlsx
@@ -525,7 +525,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Product_Version003</t>
+          <t>Product_Version020</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Product_Version005</t>
+          <t>Product_Version034</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Product_Version008</t>
+          <t>Product_Version015</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Product_Version010</t>
+          <t>Product_Version011</t>
         </is>
       </c>
     </row>
